--- a/artfynd/A 67432-2021.xlsx
+++ b/artfynd/A 67432-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1609,14 +1609,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25195</v>
+        <v>82402784</v>
       </c>
       <c r="B10" t="n">
         <v>57576</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Behöver inte valideras</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1645,7 +1645,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Stora kärret i Störlinge Gran, Öl</t>
+          <t>59, Öl</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1655,7 +1655,7 @@
         <v>6297369.740130902</v>
       </c>
       <c r="S10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2005-01-01</t>
+          <t>2014-04-15</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2005-12-31</t>
+          <t>2014-04-15</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1697,8 +1697,13 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Uttorkat, inget vatten</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
@@ -1709,12 +1714,12 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Helena Lager</t>
+          <t>Pia Hertonsson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Ingemar Ahlén</t>
+          <t>Pia Hertonsson, Marika Stenberg, Erik Fridolf, Per Nyström, Lars-Göran Pärlklint</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
@@ -2305,6 +2310,327 @@
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112272267</v>
+      </c>
+      <c r="B16" t="n">
+        <v>98961</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Störlinge gran, Öl</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>607474</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6297135</v>
+      </c>
+      <c r="S16" t="n">
+        <v>25</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Borgholm</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Öland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Gärdslösa</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Ulla-Britt Andersson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Ulla-Britt Andersson, Thomas Gunnarsson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112272269</v>
+      </c>
+      <c r="B17" t="n">
+        <v>96698</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>219798</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Epipactis helleborine</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(L.) Crantz</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Störlinge gran, Öl</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>607474</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6297135</v>
+      </c>
+      <c r="S17" t="n">
+        <v>25</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Borgholm</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Öland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Gärdslösa</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Ulla-Britt Andersson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Ulla-Britt Andersson, Thomas Gunnarsson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112272399</v>
+      </c>
+      <c r="B18" t="n">
+        <v>108537</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>219677</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Murgröna</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hedera helix</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Störlinge gran, Öl</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>607628</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6297526</v>
+      </c>
+      <c r="S18" t="n">
+        <v>25</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Borgholm</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Öland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Gärdslösa</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Ulla-Britt Andersson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Ulla-Britt Andersson, Thomas Gunnarsson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 67432-2021.xlsx
+++ b/artfynd/A 67432-2021.xlsx
@@ -2312,10 +2312,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112272267</v>
+        <v>112272269</v>
       </c>
       <c r="B16" t="n">
-        <v>98961</v>
+        <v>96713</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2328,21 +2328,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>219798</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2419,10 +2419,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112272269</v>
+        <v>112272399</v>
       </c>
       <c r="B17" t="n">
-        <v>96698</v>
+        <v>108566</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2435,21 +2435,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>219798</v>
+        <v>219677</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Hedera helix</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>607474</v>
+        <v>607628</v>
       </c>
       <c r="R17" t="n">
-        <v>6297135</v>
+        <v>6297526</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112272399</v>
+        <v>112272267</v>
       </c>
       <c r="B18" t="n">
-        <v>108537</v>
+        <v>98980</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2542,21 +2542,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>219677</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hedera helix</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2570,10 +2570,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>607628</v>
+        <v>607474</v>
       </c>
       <c r="R18" t="n">
-        <v>6297526</v>
+        <v>6297135</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>

--- a/artfynd/A 67432-2021.xlsx
+++ b/artfynd/A 67432-2021.xlsx
@@ -2312,10 +2312,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112272269</v>
+        <v>112272267</v>
       </c>
       <c r="B16" t="n">
-        <v>96713</v>
+        <v>98980</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2328,21 +2328,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>219798</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112272267</v>
+        <v>112272269</v>
       </c>
       <c r="B18" t="n">
-        <v>98980</v>
+        <v>96713</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2542,21 +2542,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>219798</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
